--- a/src/make_cv/files/Scholarship/thesis data.xlsx
+++ b/src/make_cv/files/Scholarship/thesis data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Scholarship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B3DB41-855B-B046-9CBD-58A52FAACFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D3D65-0A15-FC4B-A740-6B2B1B9F9019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21300" yWindow="3440" windowWidth="25800" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Student</t>
   </si>
@@ -57,40 +58,31 @@
     <t>Advisor</t>
   </si>
   <si>
-    <t>Karri, Madhav</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Helenbrook</t>
-  </si>
-  <si>
-    <t>Modeling automotive exhaust thermo electric generator</t>
-  </si>
-  <si>
-    <t>O'Donnell, Brian</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>New Modeling Techniques for Flows Over Particles</t>
-  </si>
-  <si>
-    <t>Mascarenhas, Brendan</t>
-  </si>
-  <si>
-    <t>Analysis of P-Multigrid solution schemes for discontinuous galerkin discretization of flow problems</t>
-  </si>
-  <si>
-    <t>Barlow, Nathanial</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Numerical Studies of the Break-up of Impinging Liquid</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Student Name, any format works but last, first is probably best</t>
+  </si>
+  <si>
+    <t>Date started in program (not used)</t>
+  </si>
+  <si>
+    <t>Graduation year</t>
+  </si>
+  <si>
+    <t>Typically M.S. or Ph.D.</t>
+  </si>
+  <si>
+    <t>Your last name (not used)</t>
+  </si>
+  <si>
+    <t>Title of thesis.  If coadvised, put the co-advisors names here in parentheses i.e. "Title (co-advised w/J. Doe)"</t>
+  </si>
+  <si>
+    <t>Not used.</t>
   </si>
 </sst>
 </file>
@@ -438,11 +430,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B72FE74-BFF7-A941-BE30-6B93C4803D51}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -476,24 +549,6 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2001</v>
-      </c>
-      <c r="C2">
-        <v>2005</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -516,24 +571,6 @@
       <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2002</v>
-      </c>
-      <c r="C3">
-        <v>2005</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -556,24 +593,6 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>2004</v>
-      </c>
-      <c r="C4">
-        <v>2009</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -594,26 +613,6 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>2004</v>
-      </c>
-      <c r="C5">
-        <v>2005</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
     </row>

--- a/src/make_cv/files/Scholarship/thesis data.xlsx
+++ b/src/make_cv/files/Scholarship/thesis data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Scholarship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D3D65-0A15-FC4B-A740-6B2B1B9F9019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC47B8D-AE74-0B44-845E-B143410B824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="3440" windowWidth="25800" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21300" yWindow="3440" windowWidth="25800" windowHeight="17300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Student</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Graduation year</t>
   </si>
   <si>
-    <t>Typically M.S. or Ph.D.</t>
-  </si>
-  <si>
     <t>Your last name (not used)</t>
   </si>
   <si>
@@ -83,6 +80,15 @@
   </si>
   <si>
     <t>Not used.</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>ME</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -151,6 +157,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,25 +438,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B72FE74-BFF7-A941-BE30-6B93C4803D51}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -457,7 +464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -465,7 +472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -473,36 +480,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -514,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -549,6 +562,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="6"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -695,6 +709,28 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
     <sortCondition descending="1" ref="C2:C31"/>
   </sortState>
+  <dataValidations count="2">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{B062ECB5-0BD6-5A4C-8D3F-BBC65665EF96}">
+      <formula1>1</formula1>
+      <formula2>73051</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{B4DAB826-A35B-DC42-BD2B-7985928E4C48}">
+      <formula1>1900</formula1>
+      <formula2>2100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACD1ED1F-461A-D24A-88B4-AB2FD5471F6B}">
+          <x14:formula1>
+            <xm:f>Notes!$B$7:$D$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>